--- a/TaskManager.xlsx
+++ b/TaskManager.xlsx
@@ -65,13 +65,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,36 +95,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -138,8 +132,84 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -153,22 +223,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -185,6 +239,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -192,52 +253,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -254,13 +269,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -272,13 +425,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -296,145 +443,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,6 +506,50 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -509,8 +568,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,60 +588,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -591,137 +606,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -744,6 +759,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -753,7 +771,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1078,7 +1102,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
@@ -1090,37 +1114,37 @@
     <col min="5" max="5" width="15.125" style="2" customWidth="1"/>
     <col min="6" max="6" width="14" style="2" customWidth="1"/>
     <col min="7" max="7" width="11.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="11.625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="12.75" style="8" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27" customHeight="1" spans="1:9">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="12" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1131,7 +1155,7 @@
       <c r="B2" s="6">
         <v>43693</v>
       </c>
-      <c r="C2" s="11"/>
+      <c r="C2" s="13"/>
       <c r="D2" s="6">
         <v>43693</v>
       </c>
@@ -1146,11 +1170,11 @@
         <f>VLOOKUP(A2,计划执行记录表!A:B,2,1)</f>
         <v>43702</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="14">
         <f>F2-D2</f>
         <v>1</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="14">
         <f>G2-F2</f>
         <v>8</v>
       </c>
@@ -1158,156 +1182,156 @@
     <row r="3" customHeight="1" spans="1:9">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="11"/>
+      <c r="C3" s="13"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
     </row>
     <row r="4" customHeight="1" spans="1:9">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
-      <c r="C4" s="11"/>
+      <c r="C4" s="13"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
     </row>
     <row r="5" customHeight="1" spans="1:9">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
-      <c r="C5" s="11"/>
+      <c r="C5" s="13"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
     </row>
     <row r="6" customHeight="1" spans="1:9">
       <c r="A6" s="5"/>
       <c r="B6" s="6"/>
-      <c r="C6" s="11"/>
+      <c r="C6" s="13"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
     </row>
     <row r="7" customHeight="1" spans="1:9">
       <c r="A7" s="5"/>
       <c r="B7" s="6"/>
-      <c r="C7" s="11"/>
+      <c r="C7" s="13"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
     </row>
     <row r="8" customHeight="1" spans="1:9">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
-      <c r="C8" s="11"/>
+      <c r="C8" s="13"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
     </row>
     <row r="9" customHeight="1" spans="1:9">
       <c r="A9" s="5"/>
       <c r="B9" s="6"/>
-      <c r="C9" s="11"/>
+      <c r="C9" s="13"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
     </row>
     <row r="10" customHeight="1" spans="1:9">
       <c r="A10" s="5"/>
       <c r="B10" s="6"/>
-      <c r="C10" s="11"/>
+      <c r="C10" s="13"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
     </row>
     <row r="11" customHeight="1" spans="1:9">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
-      <c r="C11" s="11"/>
+      <c r="C11" s="13"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
     </row>
     <row r="12" customHeight="1" spans="1:9">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
-      <c r="C12" s="11"/>
+      <c r="C12" s="13"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
     </row>
     <row r="13" customHeight="1" spans="1:9">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
-      <c r="C13" s="11"/>
+      <c r="C13" s="13"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
     </row>
     <row r="14" customHeight="1" spans="1:9">
       <c r="A14" s="5"/>
       <c r="B14" s="6"/>
-      <c r="C14" s="11"/>
+      <c r="C14" s="13"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
     </row>
     <row r="15" customHeight="1" spans="1:9">
       <c r="A15" s="5"/>
       <c r="B15" s="6"/>
-      <c r="C15" s="11"/>
+      <c r="C15" s="13"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
     </row>
     <row r="16" customHeight="1" spans="1:9">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
-      <c r="C16" s="11"/>
+      <c r="C16" s="13"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
